--- a/CplexEnergyHubs/CISBAT21/data/results/comparisons/comparing_scenarios.xlsx
+++ b/CplexEnergyHubs/CISBAT21/data/results/comparisons/comparing_scenarios.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>with DR</t>
-  </si>
-  <si>
-    <t>without DR</t>
   </si>
   <si>
     <t>total PV e=0</t>
@@ -41,7 +38,28 @@
     <t>%</t>
   </si>
   <si>
-    <t>m2</t>
+    <t>no DR</t>
+  </si>
+  <si>
+    <t>Risch</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>emissions e0</t>
+  </si>
+  <si>
+    <t>emissions e4</t>
+  </si>
+  <si>
+    <t>cost e0</t>
+  </si>
+  <si>
+    <t>cost e4</t>
+  </si>
+  <si>
+    <t>m2/lgCO2perm2/CHFperm2</t>
   </si>
 </sst>
 </file>
@@ -94,6 +112,1847 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>with DR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no DR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$3:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>23660.667163052283</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24515.500843734979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CB3A-41BB-AE75-E8A555FED880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>with DR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no DR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$4:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>10899.144980160008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10926.198869160007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CB3A-41BB-AE75-E8A555FED880}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="303804992"/>
+        <c:axId val="303807944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="303804992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303807944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="303807944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303804992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>with DR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no DR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$13:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>37084.723704810895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36184.985333058146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ACA6-4B41-8B75-05F66B0AC41C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$12:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>with DR</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>no DR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13430.257126877303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13457.038421323939</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ACA6-4B41-8B75-05F66B0AC41C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="303804008"/>
+        <c:axId val="303802696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="303804008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303802696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="303802696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="303804008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,67 +2218,285 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="24.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>18160.523980335001</v>
-      </c>
-      <c r="B2">
-        <v>17755.029595710006</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <f>A2-B2</f>
-        <v>405.49438462499529</v>
-      </c>
-      <c r="F2">
-        <f>100/A2*E2</f>
-        <v>2.2328341685740019</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>17147.906022410014</v>
+        <v>23660.667163052283</v>
       </c>
       <c r="B3">
-        <v>17026.980950135017</v>
+        <v>24515.500843734979</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <f>A3-B3</f>
-        <v>120.92507227499664</v>
+        <v>-854.83368068269556</v>
       </c>
       <c r="F3">
         <f>100/A3*E3</f>
-        <v>0.70518856423031351</v>
+        <v>-3.6128891666147762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>10899.144980160008</v>
+      </c>
+      <c r="B4">
+        <v>10926.198869160007</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>A4-B4</f>
+        <v>-27.05388899999889</v>
+      </c>
+      <c r="F4">
+        <f>100/A4*E4</f>
+        <v>-0.24822028745599564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5.314550156822059</v>
+      </c>
+      <c r="B5">
+        <v>5.3635054927011181</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E8" si="0">A5-B5</f>
+        <v>-4.8955335879059092E-2</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F8" si="1">100/A5*E5</f>
+        <v>-0.92115671946791655</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>7.4194682232260591</v>
+      </c>
+      <c r="B6">
+        <v>7.2675002256254704</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.15196799760058877</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.0482330138548872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>15.147942039762118</v>
+      </c>
+      <c r="B7">
+        <v>15.637382130942411</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-0.48944009118029363</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>-3.2310665692775502</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>14.047793695519648</v>
+      </c>
+      <c r="B8">
+        <v>14.329178385592057</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-0.28138469007240907</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>-2.003052551676872</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>37084.723704810895</v>
+      </c>
+      <c r="B13">
+        <v>36184.985333058146</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f>A13-B13</f>
+        <v>899.73837175274821</v>
+      </c>
+      <c r="F13">
+        <f>100/A13*E13</f>
+        <v>2.4261698129788893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13430.257126877303</v>
+      </c>
+      <c r="B14">
+        <v>13457.038421323939</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <f>A14-B14</f>
+        <v>-26.781294446636821</v>
+      </c>
+      <c r="F14">
+        <f>100/A14*E14</f>
+        <v>-0.19941013931178395</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>70.481032494821179</v>
+      </c>
+      <c r="B15">
+        <v>70.54882764407941</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ref="E15:E18" si="2">A15-B15</f>
+        <v>-6.7795149258230936E-2</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ref="F15:F18" si="3">100/A15*E15</f>
+        <v>-9.6189211279236575E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>74.291003098361173</v>
+      </c>
+      <c r="B16">
+        <v>74.53195671655412</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>-0.24095361819294681</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>-0.32433754848339386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>46.77266298715859</v>
+      </c>
+      <c r="B17">
+        <v>47.768495759677002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>-0.99583277251841196</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="3"/>
+        <v>-2.1290914583841789</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>44.055117225623292</v>
+      </c>
+      <c r="B18">
+        <v>45.067947434717823</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>-1.0128302090945311</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="3"/>
+        <v>-2.2990069550999852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>